--- a/Báo cáo/TestCase_CompareDB.xlsx
+++ b/Báo cáo/TestCase_CompareDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC01\Desktop\MauBaoCao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC01\Desktop\CompareDB\Báo cáo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>1.    Phạm vi test</t>
   </si>
@@ -119,167 +119,10 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Có cơ sở dữ liệu</t>
-  </si>
-  <si>
     <t>Test Title</t>
   </si>
   <si>
-    <t>Test_GetData_Table_Film</t>
-  </si>
-  <si>
-    <t>Test lấy dữ liệu được hay không</t>
-  </si>
-  <si>
-    <t>1. Mở project
-2. Mở test case thông qua Test Explorer
-3. Chuột phải v ào test case -&gt; chọn Run</t>
-  </si>
-  <si>
-    <t>7 dòng</t>
-  </si>
-  <si>
-    <t>Test kiểu dữ liệu</t>
-  </si>
-  <si>
-    <t>Nhập một giá trị bất kỳ vào cột</t>
-  </si>
-  <si>
-    <t>báo lỗi vì định dạng của cột là Integer</t>
-  </si>
-  <si>
-    <t>báo lỗi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Mở cơ sở dữ liệu bảng Cinema_Room
-2. Nhập giá trị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'abc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' vào cột numberseat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Mở cơ sở dữ liệu bảng Cinema_Room
-2. Nhập giá trị số thập phân</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  vào cột numberseat</t>
-    </r>
-  </si>
-  <si>
-    <t>báo lỗi vì cột numberseat phải là số không âm</t>
-  </si>
-  <si>
-    <t>cho lưu</t>
-  </si>
-  <si>
-    <t>Test quan hệ</t>
-  </si>
-  <si>
-    <t>Thêm một giá trị vào cột có khóa ngoại liên kết với bảng khác</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Thêm một record vào bảng Cinema_User
-2. Ở cột type ta sẽ nhập giá trị</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-  </si>
-  <si>
-    <t>Báo lỗi vì giá trị 5 không tồn tại trong bảng Cinema_Usertype</t>
-  </si>
-  <si>
     <t>Test Case Database</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Mở cơ sở dữ liệu bảng Cinema_Room
-2. Nhập giá trị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>số âm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  vào cột numberseat</t>
-    </r>
-  </si>
-  <si>
-    <t>DB-0001</t>
-  </si>
-  <si>
-    <t>DB-0002</t>
-  </si>
-  <si>
-    <t>DB-0003</t>
-  </si>
-  <si>
-    <t>DB-0004</t>
-  </si>
-  <si>
-    <t>DB-0005</t>
   </si>
   <si>
     <t>Kết nối đến 2 database</t>
@@ -544,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,22 +453,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1022,12 +849,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1040,12 +894,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1070,38 +918,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -1284,426 +1111,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1729,15 +1136,15 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>602208</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0192452-980A-4C73-8AAD-4E7277952C01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0192452-980A-4C73-8AAD-4E7277952C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,15 +1180,15 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>39555</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EF1E600-6862-409C-A9F4-2F1252D15A24}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF1E600-6862-409C-A9F4-2F1252D15A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2125,13 +1532,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2140,76 +1547,76 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57">
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="57">
+      <c r="C4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="38">
         <v>55</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="38">
         <v>55</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="38">
         <v>6</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="38">
         <v>49</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="41">
         <v>43559</v>
       </c>
-      <c r="I4" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>56</v>
+      <c r="I4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2237,11 +1644,11 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="12"/>
       <c r="E7" s="8"/>
       <c r="F7" s="2"/>
@@ -2256,10 +1663,10 @@
       <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="55">
         <v>55</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="10"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2272,10 +1679,10 @@
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="55">
         <v>6</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="10"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2288,10 +1695,10 @@
       <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="57">
         <v>49</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="10"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2323,11 +1730,11 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2350,11 +1757,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="G2:G3"/>
@@ -2364,6 +1766,11 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2374,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2395,20 +1802,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="A1" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:22" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -2453,26 +1860,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E3" s="18">
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="19" t="s">
@@ -2486,26 +1893,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E4" s="18">
         <v>1</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="19" t="s">
@@ -2518,26 +1925,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E5" s="18">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="19" t="s">
@@ -2550,26 +1957,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E6" s="18">
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="19" t="s">
@@ -2582,26 +1989,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E7" s="18">
         <v>1</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="19" t="s">
@@ -2614,26 +2021,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E8" s="18">
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="19" t="s">
@@ -2646,26 +2053,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="19" t="s">
@@ -2678,26 +2085,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E10" s="18">
         <v>1</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="19" t="s">
@@ -2710,26 +2117,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E11" s="18">
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="19" t="s">
@@ -2742,26 +2149,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="19" t="s">
@@ -2774,26 +2181,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E13" s="18">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="19" t="s">
@@ -2806,26 +2213,26 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="19" t="s">
@@ -2838,26 +2245,26 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="19" t="s">
@@ -2870,26 +2277,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="19" t="s">
@@ -2902,28 +2309,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E17" s="18">
         <v>2</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="19" t="s">
@@ -2936,28 +2343,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E18" s="18">
         <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="19" t="s">
@@ -2970,31 +2377,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E19" s="18">
         <v>2</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>28</v>
@@ -3006,31 +2413,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E20" s="18">
         <v>2</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>28</v>
@@ -3042,28 +2449,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E21" s="18">
         <v>2</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="19" t="s">
@@ -3076,28 +2483,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E22" s="18">
         <v>2</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="19" t="s">
@@ -3111,41 +2518,41 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K20">
-    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="25" priority="81" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K20">
-    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="24" priority="79" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="23" priority="80" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="76" priority="72" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="22" priority="72" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="75" priority="70" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="21" priority="70" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="71" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="20" priority="71" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="73" priority="69" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="19" priority="69" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="72" priority="67" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="18" priority="67" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="68" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="17" priority="68" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3169,9 +2576,9 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,17 +2600,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="A1" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
@@ -3217,7 +2624,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>18</v>
@@ -3250,167 +2657,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>31</v>
-      </c>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="32">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>29</v>
-      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="32"/>
-      <c r="I3" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="30">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="31" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="31">
-        <v>1</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="I4" s="31"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
